--- a/phase_04/v1.6_for_thesis_report/source-obs-count.xlsx
+++ b/phase_04/v1.6_for_thesis_report/source-obs-count.xlsx
@@ -65,7 +65,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +77,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -606,152 +614,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -764,6 +772,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -771,6 +782,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1101,12 +1115,12 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.75" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="34" customWidth="1"/>
+    <col min="1" max="1" width="31.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.75" customHeight="1" spans="1:7">
@@ -1141,7 +1155,7 @@
       <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1149,52 +1163,52 @@
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5">
         <v>99</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="7"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" ht="17.75" customHeight="1" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>112</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5">
         <v>99</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5">
         <v>138</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" ht="17.75" customHeight="1" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>87</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>1079</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>99</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>735</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>135</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="9">
         <v>545</v>
       </c>
     </row>
@@ -1202,22 +1216,22 @@
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>72</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <v>1044</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>79</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>662</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>127</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="9">
         <v>475</v>
       </c>
     </row>
@@ -1225,45 +1239,45 @@
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>65</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <v>1007</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <v>74</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <v>602</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
         <v>110</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="9">
         <v>325</v>
       </c>
     </row>
     <row r="8" ht="17.75" customHeight="1" spans="1:7">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="7">
         <v>60</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="7">
         <v>994</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="7">
         <v>58</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="7">
         <v>521</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="7">
         <v>92</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="10">
         <v>297</v>
       </c>
     </row>
